--- a/biology/Médecine/Membrane_suprapleurale/Membrane_suprapleurale.xlsx
+++ b/biology/Médecine/Membrane_suprapleurale/Membrane_suprapleurale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane suprapleurale est une partie du fascia endothoracique. Elle correspond à un épaississement fibreux de ce dernier au niveau de l'ouverture supérieure du thorax.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane suprapleurale recouvre le sommet des poumons.
 Sa face supérieure répond à la paroi et aux organes du médiastin.
@@ -546,7 +560,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane suprapleurale rigidifie l'entrée supérieure du thorax.
 Elle protège l'apex du poumon et le fascia cervical.
@@ -579,7 +595,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une lésion de la membrane suprapleurale peut entraîner la formation d'une hernie du fascia cervical.
 </t>
